--- a/server/basePresupuestosExcel - copia.xlsx
+++ b/server/basePresupuestosExcel - copia.xlsx
@@ -2273,8 +2273,8 @@
   </sheetPr>
   <dimension ref="B3:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2433,54 +2433,81 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="222"/>
       <c r="C18" s="203"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="str">
+        <f>IF(D18&lt;&gt;"",D18*E18,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="223"/>
       <c r="C19" s="223"/>
       <c r="D19" s="31"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="str">
+        <f t="shared" ref="F19:F43" si="0">IF(D19&lt;&gt;"",D19*E19,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" s="223"/>
       <c r="D20" s="31"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" s="223"/>
       <c r="D21" s="31"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="223"/>
       <c r="C22" s="203"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="223"/>
       <c r="C23" s="223"/>
       <c r="D23" s="31"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="222"/>
       <c r="C24" s="203"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="223"/>
       <c r="C25" s="223"/>
       <c r="D25" s="31"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C26" s="203"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H26" s="198"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -2488,119 +2515,170 @@
       <c r="C27" s="223"/>
       <c r="D27" s="31"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="224"/>
       <c r="C28" s="225"/>
       <c r="D28" s="209"/>
       <c r="E28" s="210"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="211"/>
       <c r="C29" s="211"/>
       <c r="D29" s="212"/>
       <c r="E29" s="213"/>
-      <c r="F29" s="8"/>
+      <c r="F29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="211"/>
       <c r="C30" s="211"/>
       <c r="D30" s="212"/>
       <c r="E30" s="213"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="31"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="F31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="31"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="31"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="F33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="31"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="31"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="F36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="31"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="F37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="31"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+      <c r="F38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="31"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="31"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="31"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="F41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="31"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="F42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
       <c r="D43" s="31"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
